--- a/biology/Virologie/Trivirinae/Trivirinae.xlsx
+++ b/biology/Virologie/Trivirinae/Trivirinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trivirinae sont une sous-famille de virus de la famille des Betaflexiviridae, qui compte dix genres et 39 espèces, acceptés par l'ICTV. Ce sont des virus à ARN simple brin à polarité positive, rattachés au groupe IV de la classification Baltimore. 
 Les virions sont des particules filamenteuses flexueuses. 
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la sous-famille, « trivirinae », est formé du préfixe tri, en référence aux trois gènes conservés que partagent tous les membres de la sous-famille (replicase, MP, CP), avec le suffixe -virinae qui caractérise le rang des sous-familles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la sous-famille, « trivirinae », est formé du préfixe tri, en référence aux trois gènes conservés que partagent tous les membres de la sous-famille (replicase, MP, CP), avec le suffixe -virinae qui caractérise le rang des sous-familles.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Structure et génome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les virions de la sous-famille des Trivirinae sont des particules non enveloppées, filamenteuses et flexueuses, de 640 à 1500 nm de long et de 12 à 15 nm de diamètre. 
 Le génome, non segmenté (monopartite), est constitué d'une molécule d'ARN à simple brin de sens positif.
-Les trois protéines conservées que tous les membres de la tribu des Trivirinae ont en commun sont la réplicase, la protéine de mouvement (MP) et la protéine de capside (CP)[2]. 
+Les trois protéines conservées que tous les membres de la tribu des Trivirinae ont en commun sont la réplicase, la protéine de mouvement (MP) et la protéine de capside (CP). 
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Hôtes et symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des virus de la sous-famille ont une gamme d'hôtes relativement restreinte, infectant principalement les plantes ligneuses telles que la vigne et les arbres fruitiers, mais de nombreux virus de cette sous-famille ont également été identifiés chez des plantes herbacées[2]. On trouve dans cette sous-famille le genre Vitivirus qui contient plusieurs espèces associées au complexe du bois strié de la vigne.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des virus de la sous-famille ont une gamme d'hôtes relativement restreinte, infectant principalement les plantes ligneuses telles que la vigne et les arbres fruitiers, mais de nombreux virus de cette sous-famille ont également été identifiés chez des plantes herbacées. On trouve dans cette sous-famille le genre Vitivirus qui contient plusieurs espèces associées au complexe du bois strié de la vigne.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart de ces virus se propagent par l'intermédiaire de vecteurs biologiques : acariens,  insectes (cochenilles et pucerons), ainsi que par greffage, par inoculation mécanique et par les graines[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart de ces virus se propagent par l'intermédiaire de vecteurs biologiques : acariens,  insectes (cochenilles et pucerons), ainsi que par greffage, par inoculation mécanique et par les graines.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (17 février 2021)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (17 février 2021) :
 Capillovirus
 Chordovirus
 Citrivirus
